--- a/refs/fsi_parameters.xlsx
+++ b/refs/fsi_parameters.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catchamberlain/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catchamberlain/Documents/git/springfreeze/refs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="18440" yWindow="7760" windowWidth="28800" windowHeight="17600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="18440" yWindow="7760" windowWidth="28800" windowHeight="17600" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
     <sheet name="Table Reference" sheetId="2" r:id="rId2"/>
     <sheet name="Source" sheetId="3" r:id="rId3"/>
+    <sheet name="Temperature Table" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,154 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
+  <si>
+    <t xml:space="preserve">This should be a used as a literature reference for formulating FSI </t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Name of the listed parameter that I can use in equation</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Study ID reference </t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Specifics for that study</t>
+  </si>
+  <si>
+    <t>Source Tab</t>
+  </si>
+  <si>
+    <t>List of references</t>
+  </si>
+  <si>
+    <t>StudyID</t>
+  </si>
+  <si>
+    <t>First Author</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Journal</t>
+  </si>
+  <si>
+    <t>cite</t>
+  </si>
+  <si>
+    <t>laube14</t>
+  </si>
+  <si>
+    <t>augspurger13</t>
+  </si>
+  <si>
+    <t>jeong13</t>
+  </si>
+  <si>
+    <t>marino11</t>
+  </si>
+  <si>
+    <t>FSI equation</t>
+  </si>
+  <si>
+    <t>FSI = Last Freeze (doy) - Budburst (doy)</t>
+  </si>
+  <si>
+    <t>earliest date</t>
+  </si>
+  <si>
+    <t>February is too early for FS event</t>
+  </si>
+  <si>
+    <t>Explanation</t>
+  </si>
+  <si>
+    <t>&gt;7 then enough time for budburst to initiate and crown dieback to occur</t>
+  </si>
+  <si>
+    <t>insufficient chilling</t>
+  </si>
+  <si>
+    <t>peterson14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;7 </t>
+  </si>
+  <si>
+    <t>FSI must be &gt;7</t>
+  </si>
+  <si>
+    <t>less resistent foliate phenophases are exposed and at risk</t>
+  </si>
+  <si>
+    <t>hard and soft freezes</t>
+  </si>
+  <si>
+    <t>vavrus06</t>
+  </si>
+  <si>
+    <t>cold-air outbreaks</t>
+  </si>
+  <si>
+    <t>2+ consecutive days Tmean is 2 stdev below avg winter Tmean</t>
+  </si>
+  <si>
+    <t>schwartz93</t>
+  </si>
+  <si>
+    <t>schwartz06, ault15</t>
+  </si>
+  <si>
+    <t>Tmin "-2.2" is hard; "-1.7" is soft</t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>Phenophase</t>
+  </si>
+  <si>
+    <t>Plant Type</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Threshold</t>
+  </si>
+  <si>
+    <t>Temperature Table Tab:</t>
+  </si>
+  <si>
+    <t>Agricultural or Ecological</t>
+  </si>
+  <si>
+    <t>Budburst, Leafout, floral, fruit?</t>
+  </si>
+  <si>
+    <t>Tree, shrub, herbaceous, gramanoid</t>
+  </si>
+  <si>
+    <t>What temperature is it</t>
+  </si>
+  <si>
+    <t>hard, soft, killing, percentage (e.g. LT 50 - 50% lethal temperature)?</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>datasetID from "Table Reference" tab, "Reference"</t>
+  </si>
   <si>
     <r>
       <rPr>
@@ -50,130 +198,30 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Make a table with all GDD references</t>
+      <t>Make a table with all GDD  and temperature threshold references</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">This should be a used as a literature reference for formulating FSI </t>
-  </si>
-  <si>
-    <t>Parameter</t>
-  </si>
-  <si>
-    <t>Name of the listed parameter that I can use in equation</t>
-  </si>
-  <si>
-    <t>Reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Study ID reference </t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Specifics for that study</t>
-  </si>
-  <si>
-    <t>Source Tab</t>
-  </si>
-  <si>
-    <t>List of references</t>
-  </si>
-  <si>
-    <t>StudyID</t>
-  </si>
-  <si>
-    <t>First Author</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Journal</t>
-  </si>
-  <si>
-    <t>cite</t>
-  </si>
-  <si>
-    <t>laube14</t>
-  </si>
-  <si>
-    <t>augspurger13</t>
-  </si>
-  <si>
-    <t>jeong13</t>
-  </si>
-  <si>
-    <t>marino11</t>
-  </si>
-  <si>
-    <t>FSI equation</t>
-  </si>
-  <si>
-    <t>FSI = Last Freeze (doy) - Budburst (doy)</t>
-  </si>
-  <si>
-    <t>earliest date</t>
-  </si>
-  <si>
-    <t>February is too early for FS event</t>
-  </si>
-  <si>
-    <t>Explanation</t>
-  </si>
-  <si>
-    <t>&gt;7 then enough time for budburst to initiate and crown dieback to occur</t>
-  </si>
-  <si>
-    <t>insufficient chilling</t>
-  </si>
-  <si>
-    <t>peterson14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;7 </t>
-  </si>
-  <si>
-    <t>FSI must be &gt;7</t>
-  </si>
-  <si>
-    <t>less resistent foliate phenophases are exposed and at risk</t>
-  </si>
-  <si>
-    <t>hard and soft freezes</t>
-  </si>
-  <si>
-    <t>vavrus06</t>
-  </si>
-  <si>
-    <t>cold-air outbreaks</t>
-  </si>
-  <si>
-    <t>2+ consecutive days Tmean is 2 stdev below avg winter Tmean</t>
-  </si>
-  <si>
-    <t>schwartz93</t>
-  </si>
-  <si>
-    <t>schwartz06, ault15</t>
-  </si>
-  <si>
-    <t>Tmin "-2.2" is hard; "-1.7" is soft</t>
+    <t>Lenz16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schwartz93 </t>
+  </si>
+  <si>
+    <t>Ecology</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>soft</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -185,6 +233,22 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -207,13 +271,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -489,54 +557,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
         <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>9</v>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -548,7 +667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -560,83 +679,83 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
         <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
         <v>31</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -656,39 +775,113 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="E3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4">
+        <v>-1.7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
